--- a/C题机场的出租车问题/出租车每小时收益.xlsx
+++ b/C题机场的出租车问题/出租车每小时收益.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Documents\Tencent Files\1609547089\FileRecv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\C题机场的出租车问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E6F896-42FE-43F9-B7C3-621BDE76A212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CADDDF-FE28-4D5B-82D5-360C97A3873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4932" yWindow="864" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>时间</t>
   </si>
   <si>
-    <t>每小时收益</t>
-  </si>
-  <si>
-    <t>所占日收益比例</t>
+    <t>每小时收益/元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,6 +43,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -73,15 +79,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,7 +162,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>每小时收益</c:v>
+                  <c:v>每小时收益/元</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -334,31 +337,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.444</c:v>
+                  <c:v>5.444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.252</c:v>
+                  <c:v>4.2519999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.232</c:v>
+                  <c:v>4.2320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.78400000000000003</c:v>
+                  <c:v>4.7839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33600000000000002</c:v>
+                  <c:v>5.3360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19600000000000001</c:v>
+                  <c:v>6.1959999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.112</c:v>
+                  <c:v>8.1120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.844000000000001</c:v>
+                  <c:v>14.843999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.14</c:v>
+                  <c:v>19.14</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>19.655999999999999</c:v>
@@ -403,7 +406,7 @@
                   <c:v>11.172000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.996</c:v>
+                  <c:v>6.9960000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,16 +1176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>34290</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1468,301 +1471,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.444</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.23E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.252</v>
-      </c>
-      <c r="C3" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2519999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.232</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.2320000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.7839999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.3360000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.19600000000000001</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.1959999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.112</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.1120000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.844000000000001</v>
-      </c>
-      <c r="C9" s="2">
-        <v>6.7299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14.843999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.14</v>
-      </c>
-      <c r="C10" s="2">
-        <v>7.5499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
         <v>19.655999999999999</v>
       </c>
-      <c r="C11" s="2">
-        <v>7.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
         <v>17.443999999999999</v>
       </c>
-      <c r="C12" s="2">
-        <v>6.2300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
         <v>15.148</v>
       </c>
-      <c r="C13" s="2">
-        <v>5.4100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
         <v>13.888</v>
       </c>
-      <c r="C14" s="2">
-        <v>4.9599999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
         <v>11.788</v>
       </c>
-      <c r="C15" s="2">
-        <v>4.2099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
         <v>14.923999999999999</v>
       </c>
-      <c r="C16" s="2">
-        <v>5.33E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
         <v>15.54</v>
       </c>
-      <c r="C17" s="2">
-        <v>5.5500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
         <v>17.108000000000001</v>
       </c>
-      <c r="C18" s="2">
-        <v>6.1100000000000002E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
         <v>19.515999999999998</v>
       </c>
-      <c r="C19" s="2">
-        <v>6.9699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
         <v>17.724</v>
       </c>
-      <c r="C20" s="2">
-        <v>6.3299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
         <v>19.655999999999999</v>
       </c>
-      <c r="C21" s="2">
-        <v>7.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
         <v>18.116</v>
       </c>
-      <c r="C22" s="2">
-        <v>6.4699999999999994E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
         <v>15.092000000000001</v>
       </c>
-      <c r="C23" s="2">
-        <v>5.3900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
         <v>11.172000000000001</v>
       </c>
-      <c r="C24" s="2">
-        <v>3.9899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.996</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.0699999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.9960000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>SUM(B2:B25)</f>
-        <v>276.108</v>
-      </c>
-      <c r="C26">
-        <f>SUM(C2:C25)</f>
-        <v>0.99420000000000008</v>
+        <v>306.108</v>
       </c>
     </row>
   </sheetData>

--- a/C题机场的出租车问题/出租车每小时收益.xlsx
+++ b/C题机场的出租车问题/出租车每小时收益.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lancibe\Desktop\数模培训\C题机场的出租车问题\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CADDDF-FE28-4D5B-82D5-360C97A3873A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4055A60C-C293-42E8-B474-7647A33D3260}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="864" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9300" yWindow="660" windowWidth="15060" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,7 +400,7 @@
                   <c:v>18.116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15.092000000000001</c:v>
+                  <c:v>17.091999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>11.172000000000001</c:v>
@@ -1176,16 +1176,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>34290</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>712470</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
+      <xdr:colOff>407670</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1471,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1664,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.092000000000001</v>
+        <v>17.091999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1681,12 +1681,6 @@
       </c>
       <c r="B25">
         <v>6.9960000000000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <f>SUM(B2:B25)</f>
-        <v>306.108</v>
       </c>
     </row>
   </sheetData>
